--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C37774-F101-4A3A-8E67-EDC3C30516E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
@@ -261,19 +260,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -440,6 +426,19 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -501,7 +500,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Business Table" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
@@ -523,22 +522,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19795</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>108579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2133</xdr:rowOff>
+      <xdr:colOff>73135</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1462486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Abstract banner" title="Banner 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,21 +545,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="8496300" cy="1320393"/>
+          <a:off x="172195" y="108579"/>
+          <a:ext cx="8545407" cy="1353907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,70 +672,26 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>121395</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>481112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22335</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>285619</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="121395" y="2241595"/>
-          <a:ext cx="8556209" cy="1349527"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B3:J24"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="10">
+    <tableColumn id="1" name="For Reorder" dataDxfId="8">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="6">
+    <tableColumn id="3" name="Name" dataDxfId="7"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity in Stock" dataDxfId="5"/>
+    <tableColumn id="7" name="Inventory Value" dataDxfId="4">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="2"/>
+    <tableColumn id="8" name="Reorder Level" dataDxfId="3"/>
+    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="2"/>
+    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="1"/>
+    <tableColumn id="11" name="Discontinued?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -946,14 +896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1610,7 +1560,7 @@
         <v>2128</v>
       </c>
       <c r="G24" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="8">
         <v>11</v>
@@ -1621,31 +1571,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:J24">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>$J4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1691,15 +1641,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1907,6 +1848,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
@@ -1926,14 +1876,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1951,4 +1893,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -903,7 +903,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -994,7 +994,7 @@
         <v>1326</v>
       </c>
       <c r="G4" s="8">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H4" s="8">
         <v>13</v>
@@ -1641,6 +1641,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1848,15 +1857,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
@@ -1876,6 +1876,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1893,12 +1901,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -521,14 +521,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19795</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>193426</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>108579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>73135</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>788504</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1462486</xdr:rowOff>
     </xdr:to>
@@ -546,15 +546,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="172195" y="108579"/>
-          <a:ext cx="8545407" cy="1353907"/>
+          <a:off x="3241426" y="108579"/>
+          <a:ext cx="2406945" cy="1353907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -903,7 +909,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1641,15 +1647,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1857,6 +1854,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
@@ -1876,14 +1882,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1901,4 +1899,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176DED5-22D9-4ED8-B9A2-B3E2604DFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9468"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Highlight items to reorder?</t>
   </si>
@@ -134,12 +135,15 @@
   </si>
   <si>
     <t>Item 400</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
@@ -260,6 +264,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -426,19 +443,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -500,7 +504,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Business Table" pivot="0" count="3">
+    <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
@@ -521,16 +525,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>193426</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108579</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>506512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>788504</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1462486</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>492170</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -559,7 +563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3241426" y="108579"/>
+          <a:off x="7618692" y="2267579"/>
           <a:ext cx="2406945" cy="1353907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -682,22 +686,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B3:J24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="For Reorder" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="10">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Name" dataDxfId="7"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity in Stock" dataDxfId="5"/>
-    <tableColumn id="7" name="Inventory Value" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="6">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Reorder Level" dataDxfId="3"/>
-    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="2"/>
-    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="1"/>
-    <tableColumn id="11" name="Discontinued?" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -902,14 +906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -949,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -984,7 +988,7 @@
     <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -1012,7 +1016,7 @@
     <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -1124,7 +1128,7 @@
     <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -1183,7 +1187,7 @@
     <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>17</v>
@@ -1239,7 +1243,7 @@
     <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -1267,7 +1271,7 @@
     <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>20</v>
@@ -1295,7 +1299,7 @@
     <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>21</v>
@@ -1323,7 +1327,7 @@
     <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>22</v>
@@ -1351,7 +1355,7 @@
     <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
@@ -1407,7 +1411,7 @@
     <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>25</v>
@@ -1466,7 +1470,7 @@
     <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>27</v>
@@ -1494,7 +1498,7 @@
     <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>28</v>
@@ -1577,31 +1581,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:J24">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$J4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1638,12 +1642,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1855,28 +1859,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1902,9 +1896,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F176DED5-22D9-4ED8-B9A2-B3E2604DFEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9468"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Highlight items to reorder?</t>
   </si>
@@ -135,15 +134,12 @@
   </si>
   <si>
     <t>Item 400</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
@@ -199,12 +195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,13 +205,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -241,7 +228,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -251,12 +237,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,12 +492,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Business Table" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF0A3000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -523,56 +516,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>506512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>492170</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>6219</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7618692" y="2267579"/>
-          <a:ext cx="2406945" cy="1353907"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -600,7 +543,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="152399" y="514350"/>
-          <a:ext cx="2657475" cy="962025"/>
+          <a:ext cx="1986915" cy="956310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,26 +625,411 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>945527</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>261666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661969</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1303347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103767" y="261666"/>
+          <a:ext cx="1126142" cy="1041681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762897</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>192502</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3200400" cy="1211742"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3330837" y="192502"/>
+          <a:ext cx="3200400" cy="1211742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Republic of the Philippines</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CAVITE STATE UNIVERSITY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CCAT Campus</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rosario, Cavite</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (046) 437-9505 / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(046) 437-6659</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>cvsurosario@cvsu.edu.ph</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>www.cvsu-rosari.edu.ph</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B3:J24"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="10">
+    <tableColumn id="1" name="For Reorder" dataDxfId="10">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="6">
+    <tableColumn id="3" name="Name" dataDxfId="9"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity in Stock" dataDxfId="7"/>
+    <tableColumn id="7" name="Inventory Value" dataDxfId="6">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="2"/>
+    <tableColumn id="8" name="Reorder Level" dataDxfId="5"/>
+    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="4"/>
+    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="3"/>
+    <tableColumn id="11" name="Discontinued?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,680 +1234,686 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="14" customWidth="1"/>
-    <col min="7" max="9" width="10.81640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.81640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="1" width="1.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="10.81640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="1.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" spans="2:11" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="10"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="J2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>26</v>
+      </c>
+      <c r="F4" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>1326</v>
+      </c>
+      <c r="G4" s="5">
+        <v>69</v>
+      </c>
+      <c r="H4" s="5">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5">
+        <v>132</v>
+      </c>
+      <c r="F5" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>12276</v>
+      </c>
+      <c r="G5" s="5">
+        <v>231</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="18">
-        <v>51</v>
-      </c>
-      <c r="E4" s="8">
-        <v>26</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5">
+        <v>151</v>
+      </c>
+      <c r="F6" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1326</v>
-      </c>
-      <c r="G4" s="8">
-        <v>69</v>
-      </c>
-      <c r="H4" s="8">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
+        <v>8607</v>
+      </c>
+      <c r="G6" s="5">
+        <v>114</v>
+      </c>
+      <c r="H6" s="5">
+        <v>11</v>
+      </c>
+      <c r="I6" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="18">
-        <v>93</v>
-      </c>
-      <c r="E5" s="8">
-        <v>132</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>186</v>
+      </c>
+      <c r="F7" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>12276</v>
-      </c>
-      <c r="G5" s="8">
-        <v>231</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8">
+        <v>3534</v>
+      </c>
+      <c r="G7" s="5">
+        <v>158</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
+    <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14">
+        <v>75</v>
+      </c>
+      <c r="E8" s="5">
+        <v>62</v>
+      </c>
+      <c r="F8" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>4650</v>
+      </c>
+      <c r="G8" s="5">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5">
         <v>12</v>
       </c>
-      <c r="D6" s="18">
-        <v>57</v>
-      </c>
-      <c r="E6" s="8">
-        <v>151</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="I8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>8607</v>
-      </c>
-      <c r="G6" s="8">
-        <v>114</v>
-      </c>
-      <c r="H6" s="8">
-        <v>11</v>
-      </c>
-      <c r="I6" s="8">
+        <v>55</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
+    <row r="10" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="18">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8">
-        <v>186</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3534</v>
-      </c>
-      <c r="G7" s="8">
-        <v>158</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6</v>
-      </c>
-      <c r="I7" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
+        <v>3248</v>
+      </c>
+      <c r="G10" s="5">
+        <v>109</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>100</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5">
+        <v>101</v>
+      </c>
+      <c r="F11" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>3838</v>
+      </c>
+      <c r="G11" s="5">
+        <v>162</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="18">
-        <v>75</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5">
+        <v>122</v>
+      </c>
+      <c r="F12" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>7198</v>
+      </c>
+      <c r="G12" s="5">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5">
+        <v>175</v>
+      </c>
+      <c r="F13" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>8750</v>
+      </c>
+      <c r="G13" s="5">
+        <v>283</v>
+      </c>
+      <c r="H13" s="5">
+        <v>8</v>
+      </c>
+      <c r="I13" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5">
+        <v>176</v>
+      </c>
+      <c r="F14" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>10384</v>
+      </c>
+      <c r="G14" s="5">
+        <v>229</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5">
+        <v>22</v>
+      </c>
+      <c r="F15" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>396</v>
+      </c>
+      <c r="G15" s="5">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5">
+        <v>72</v>
+      </c>
+      <c r="F16" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>1872</v>
+      </c>
+      <c r="G16" s="5">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5">
+        <v>9</v>
+      </c>
+      <c r="I16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5">
         <v>62</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F17" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>4650</v>
-      </c>
-      <c r="G8" s="8">
-        <v>39</v>
-      </c>
-      <c r="H8" s="8">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
+        <v>2604</v>
+      </c>
+      <c r="G17" s="5">
+        <v>83</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="14">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46</v>
+      </c>
+      <c r="F18" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>1472</v>
+      </c>
+      <c r="G18" s="5">
+        <v>23</v>
+      </c>
+      <c r="H18" s="5">
         <v>15</v>
       </c>
-      <c r="D9" s="18">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="I18" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14">
+        <v>90</v>
+      </c>
+      <c r="E19" s="5">
+        <v>96</v>
+      </c>
+      <c r="F19" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>55</v>
-      </c>
-      <c r="G9" s="8">
-        <v>9</v>
-      </c>
-      <c r="H9" s="8">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
+        <v>8640</v>
+      </c>
+      <c r="G19" s="5">
+        <v>180</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="18">
-        <v>56</v>
-      </c>
-      <c r="E10" s="8">
-        <v>58</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14">
+        <v>97</v>
+      </c>
+      <c r="E20" s="5">
+        <v>57</v>
+      </c>
+      <c r="F20" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3248</v>
-      </c>
-      <c r="G10" s="8">
-        <v>109</v>
-      </c>
-      <c r="H10" s="8">
+        <v>5529</v>
+      </c>
+      <c r="G20" s="5">
+        <v>98</v>
+      </c>
+      <c r="H20" s="5">
+        <v>12</v>
+      </c>
+      <c r="I20" s="5">
+        <v>50</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="14">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>72</v>
+      </c>
+      <c r="G21" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="8">
-        <v>100</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="H21" s="5">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="14">
+        <v>82</v>
+      </c>
+      <c r="E22" s="5">
+        <v>143</v>
+      </c>
+      <c r="F22" s="11">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>11726</v>
+      </c>
+      <c r="G22" s="5">
+        <v>164</v>
+      </c>
+      <c r="H22" s="5">
+        <v>12</v>
+      </c>
+      <c r="I22" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="18">
-        <v>38</v>
-      </c>
-      <c r="E11" s="8">
-        <v>101</v>
-      </c>
-      <c r="F11" s="14">
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="14">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5">
+        <v>124</v>
+      </c>
+      <c r="F23" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3838</v>
-      </c>
-      <c r="G11" s="8">
-        <v>162</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3</v>
-      </c>
-      <c r="I11" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="G23" s="5">
+        <v>113</v>
+      </c>
+      <c r="H23" s="5">
+        <v>14</v>
+      </c>
+      <c r="I23" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="18">
-        <v>59</v>
-      </c>
-      <c r="E12" s="8">
-        <v>122</v>
-      </c>
-      <c r="F12" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>7198</v>
-      </c>
-      <c r="G12" s="8">
-        <v>82</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="14">
         <v>19</v>
       </c>
-      <c r="D13" s="18">
-        <v>50</v>
-      </c>
-      <c r="E13" s="8">
-        <v>175</v>
-      </c>
-      <c r="F13" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>8750</v>
-      </c>
-      <c r="G13" s="8">
-        <v>283</v>
-      </c>
-      <c r="H13" s="8">
-        <v>8</v>
-      </c>
-      <c r="I13" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="18">
-        <v>59</v>
-      </c>
-      <c r="E14" s="8">
-        <v>176</v>
-      </c>
-      <c r="F14" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>10384</v>
-      </c>
-      <c r="G14" s="8">
-        <v>229</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="18">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8">
-        <v>22</v>
-      </c>
-      <c r="F15" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>396</v>
-      </c>
-      <c r="G15" s="8">
-        <v>36</v>
-      </c>
-      <c r="H15" s="8">
-        <v>12</v>
-      </c>
-      <c r="I15" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="18">
-        <v>26</v>
-      </c>
-      <c r="E16" s="8">
-        <v>72</v>
-      </c>
-      <c r="F16" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1872</v>
-      </c>
-      <c r="G16" s="8">
-        <v>102</v>
-      </c>
-      <c r="H16" s="8">
-        <v>9</v>
-      </c>
-      <c r="I16" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="18">
-        <v>42</v>
-      </c>
-      <c r="E17" s="8">
-        <v>62</v>
-      </c>
-      <c r="F17" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>2604</v>
-      </c>
-      <c r="G17" s="8">
-        <v>83</v>
-      </c>
-      <c r="H17" s="8">
-        <v>2</v>
-      </c>
-      <c r="I17" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="18">
-        <v>32</v>
-      </c>
-      <c r="E18" s="8">
-        <v>46</v>
-      </c>
-      <c r="F18" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1472</v>
-      </c>
-      <c r="G18" s="8">
-        <v>23</v>
-      </c>
-      <c r="H18" s="8">
-        <v>15</v>
-      </c>
-      <c r="I18" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="18">
-        <v>90</v>
-      </c>
-      <c r="E19" s="8">
-        <v>96</v>
-      </c>
-      <c r="F19" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>8640</v>
-      </c>
-      <c r="G19" s="8">
-        <v>180</v>
-      </c>
-      <c r="H19" s="8">
-        <v>3</v>
-      </c>
-      <c r="I19" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="18">
-        <v>97</v>
-      </c>
-      <c r="E20" s="8">
-        <v>57</v>
-      </c>
-      <c r="F20" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>5529</v>
-      </c>
-      <c r="G20" s="8">
-        <v>98</v>
-      </c>
-      <c r="H20" s="8">
-        <v>12</v>
-      </c>
-      <c r="I20" s="8">
-        <v>50</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="18">
-        <v>12</v>
-      </c>
-      <c r="E21" s="8">
-        <v>6</v>
-      </c>
-      <c r="F21" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>72</v>
-      </c>
-      <c r="G21" s="8">
-        <v>7</v>
-      </c>
-      <c r="H21" s="8">
-        <v>13</v>
-      </c>
-      <c r="I21" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="18">
-        <v>82</v>
-      </c>
-      <c r="E22" s="8">
-        <v>143</v>
-      </c>
-      <c r="F22" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>11726</v>
-      </c>
-      <c r="G22" s="8">
-        <v>164</v>
-      </c>
-      <c r="H22" s="8">
-        <v>12</v>
-      </c>
-      <c r="I22" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="18">
-        <v>16</v>
-      </c>
-      <c r="E23" s="8">
-        <v>124</v>
-      </c>
-      <c r="F23" s="14">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1984</v>
-      </c>
-      <c r="G23" s="8">
-        <v>113</v>
-      </c>
-      <c r="H23" s="8">
-        <v>14</v>
-      </c>
-      <c r="I23" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="18">
-        <v>19</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <v>112</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>2128</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="5">
         <v>6</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="5">
         <v>11</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="5">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <conditionalFormatting sqref="B4:J24">
     <cfRule type="expression" dxfId="1" priority="24">
       <formula>$J4="Yes"</formula>
@@ -1589,26 +1923,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1651,6 +1985,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1858,15 +2201,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
@@ -1876,6 +2210,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1893,22 +2245,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8A55E-D25F-4FEB-819D-D2EE8B80270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9468"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
@@ -174,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,9 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -231,20 +235,23 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -252,6 +259,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -409,26 +436,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -492,7 +499,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Business Table" pivot="0" count="3">
+    <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
@@ -500,6 +507,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF339933"/>
       <color rgb="FF0A3000"/>
     </mruColors>
   </colors>
@@ -640,7 +648,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -678,7 +692,13 @@
     <xdr:ext cx="3200400" cy="1211742"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1014,22 +1034,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B3:J24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12">
+  <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="For Reorder" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="11">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Name" dataDxfId="9"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity in Stock" dataDxfId="7"/>
-    <tableColumn id="7" name="Inventory Value" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="7">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Reorder Level" dataDxfId="5"/>
-    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="4"/>
-    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="3"/>
-    <tableColumn id="11" name="Discontinued?" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,14 +1254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1249,9 +1269,9 @@
     <col min="1" max="1" width="1.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="10" customWidth="1"/>
     <col min="7" max="7" width="8.6328125" style="5" customWidth="1"/>
     <col min="8" max="9" width="10.81640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.7265625" style="4" customWidth="1"/>
@@ -1260,59 +1280,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="7"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1324,13 +1344,13 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>51</v>
       </c>
       <c r="E4" s="5">
         <v>26</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>1326</v>
       </c>
@@ -1352,13 +1372,13 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>93</v>
       </c>
       <c r="E5" s="5">
         <v>132</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>12276</v>
       </c>
@@ -1380,13 +1400,13 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>57</v>
       </c>
       <c r="E6" s="5">
         <v>151</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8607</v>
       </c>
@@ -1408,13 +1428,13 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>19</v>
       </c>
       <c r="E7" s="5">
         <v>186</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3534</v>
       </c>
@@ -1436,13 +1456,13 @@
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>75</v>
       </c>
       <c r="E8" s="5">
         <v>62</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>4650</v>
       </c>
@@ -1464,13 +1484,13 @@
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>11</v>
       </c>
       <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>55</v>
       </c>
@@ -1492,13 +1512,13 @@
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>56</v>
       </c>
       <c r="E10" s="5">
         <v>58</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3248</v>
       </c>
@@ -1523,13 +1543,13 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>38</v>
       </c>
       <c r="E11" s="5">
         <v>101</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3838</v>
       </c>
@@ -1551,13 +1571,13 @@
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>59</v>
       </c>
       <c r="E12" s="5">
         <v>122</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>7198</v>
       </c>
@@ -1579,13 +1599,13 @@
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>50</v>
       </c>
       <c r="E13" s="5">
         <v>175</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8750</v>
       </c>
@@ -1607,13 +1627,13 @@
       <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>59</v>
       </c>
       <c r="E14" s="5">
         <v>176</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>10384</v>
       </c>
@@ -1635,13 +1655,13 @@
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>18</v>
       </c>
       <c r="E15" s="5">
         <v>22</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>396</v>
       </c>
@@ -1663,13 +1683,13 @@
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>26</v>
       </c>
       <c r="E16" s="5">
         <v>72</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>1872</v>
       </c>
@@ -1691,13 +1711,13 @@
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>42</v>
       </c>
       <c r="E17" s="5">
         <v>62</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>2604</v>
       </c>
@@ -1719,13 +1739,13 @@
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>32</v>
       </c>
       <c r="E18" s="5">
         <v>46</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>1472</v>
       </c>
@@ -1747,13 +1767,13 @@
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>90</v>
       </c>
       <c r="E19" s="5">
         <v>96</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8640</v>
       </c>
@@ -1775,13 +1795,13 @@
       <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>97</v>
       </c>
       <c r="E20" s="5">
         <v>57</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>5529</v>
       </c>
@@ -1806,13 +1826,13 @@
       <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>72</v>
       </c>
@@ -1834,13 +1854,13 @@
       <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>82</v>
       </c>
       <c r="E22" s="5">
         <v>143</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>11726</v>
       </c>
@@ -1862,13 +1882,13 @@
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>16</v>
       </c>
       <c r="E23" s="5">
         <v>124</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>1984</v>
       </c>
@@ -1890,13 +1910,13 @@
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>19</v>
       </c>
       <c r="E24" s="5">
         <v>112</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>2128</v>
       </c>
@@ -1915,31 +1935,31 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:J24">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="2" priority="24">
       <formula>$J4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1976,24 +1996,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2201,10 +2203,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2228,21 +2260,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8A55E-D25F-4FEB-819D-D2EE8B80270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E74271-ED73-422F-851A-CBC466C02E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -241,9 +241,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,31 +250,55 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF339933"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -291,6 +312,21 @@
         <strike/>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -418,8 +454,7 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -428,12 +463,18 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -500,13 +541,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF7CEC66"/>
+      <color rgb="FFD1FFBD"/>
       <color rgb="FF339933"/>
       <color rgb="FF0A3000"/>
     </mruColors>
@@ -583,10 +626,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7CEC66"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
@@ -598,10 +638,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="339933"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
@@ -610,10 +647,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="339933"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
@@ -621,10 +655,7 @@
           </a:r>
           <a:endParaRPr lang="en-US" sz="1800">
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="339933"/>
             </a:solidFill>
             <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
@@ -1014,7 +1045,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
             </a:rPr>
-            <a:t>www.cvsu-rosari.edu.ph</a:t>
+            <a:t>www.cvsu-rosario.edu.ph</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -1034,22 +1065,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="6">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="11">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1280,15 +1311,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1308,31 +1339,31 @@
       </c>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1421,32 +1452,33 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2">
+      <c r="B7" s="18">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="20">
         <v>19</v>
       </c>
-      <c r="E7" s="5">
-        <v>186</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="21">
+        <v>191</v>
+      </c>
+      <c r="F7" s="22">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3534</v>
-      </c>
-      <c r="G7" s="5">
-        <v>158</v>
-      </c>
-      <c r="H7" s="5">
+        <v>3629</v>
+      </c>
+      <c r="G7" s="21">
+        <v>190</v>
+      </c>
+      <c r="H7" s="21">
         <v>6</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="21">
         <v>50</v>
       </c>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1479,7 +1511,7 @@
     <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -1488,11 +1520,11 @@
         <v>11</v>
       </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="G9" s="5">
         <v>9</v>
@@ -1935,10 +1967,10 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:J24">
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$J4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="0" priority="25">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1996,6 +2028,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2203,40 +2253,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2260,9 +2280,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E74271-ED73-422F-851A-CBC466C02E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
     <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Highlight items to reorder?</t>
   </si>
@@ -134,13 +133,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Item 400</t>
+    <t xml:space="preserve">Acknowledge by: </t>
+  </si>
+  <si>
+    <t>_____________________________________</t>
+  </si>
+  <si>
+    <t>SIGNATURE OVER PRINTED NAME</t>
+  </si>
+  <si>
+    <t>Checked by:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
@@ -202,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,9 +258,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,12 +273,18 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -286,47 +297,6 @@
         <strike/>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -454,6 +424,21 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -540,10 +525,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Business Table" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+    <tableStyle name="Business Table" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1065,22 +1050,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="B3:J24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="B3:J23"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="For Reorder" dataDxfId="6">
+    <tableColumn id="1" name="For Reorder" dataDxfId="10">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unit Price" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity in Stock" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Inventory Value" dataDxfId="11">
+    <tableColumn id="3" name="Name" dataDxfId="9"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity in Stock" dataDxfId="7"/>
+    <tableColumn id="7" name="Inventory Value" dataDxfId="6">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reorder Level" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Reorder Time in Days" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Quantity in Reorder" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Discontinued?" dataDxfId="7"/>
+    <tableColumn id="8" name="Reorder Level" dataDxfId="5"/>
+    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="4"/>
+    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="3"/>
+    <tableColumn id="11" name="Discontinued?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1285,14 +1270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1311,15 +1296,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1452,33 +1437,33 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>19</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>191</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3629</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <v>190</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>6</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>50</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1934,39 +1919,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="25" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="12">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5">
-        <v>112</v>
-      </c>
-      <c r="F24" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>2128</v>
-      </c>
-      <c r="G24" s="5">
-        <v>6</v>
-      </c>
-      <c r="H24" s="5">
-        <v>11</v>
-      </c>
-      <c r="I24" s="5">
-        <v>50</v>
-      </c>
+      <c r="I25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="I27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:J24">
+  <conditionalFormatting sqref="B4:J23">
     <cfRule type="expression" dxfId="1" priority="24">
       <formula>$J4="Yes"</formula>
     </cfRule>
@@ -1975,23 +1965,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J24" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J23">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2003,7 +1993,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{22614FA3-6814-43BC-85E4-CF5B29361B41}">
+          <x14:cfRule type="iconSet" priority="29" id="{22614FA3-6814-43BC-85E4-CF5B29361B41}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2019,7 +2009,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B4:B24</xm:sqref>
+          <xm:sqref>B4:B23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2037,15 +2027,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2253,6 +2234,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
@@ -2262,24 +2252,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2297,4 +2269,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -10,9 +10,9 @@
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory List'!$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory List'!$J$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
-    <definedName name="valHighlight">IFERROR(IF('Inventory List'!$J$2="Yes", TRUE, FALSE),FALSE)</definedName>
+    <definedName name="valHighlight">IFERROR(IF('Inventory List'!$K$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Highlight items to reorder?</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Discontinued?</t>
   </si>
   <si>
-    <t>Item 1</t>
-  </si>
-  <si>
     <t>Item 2</t>
   </si>
   <si>
@@ -97,36 +94,6 @@
     <t>Item 10</t>
   </si>
   <si>
-    <t>Item 11</t>
-  </si>
-  <si>
-    <t>Item 12</t>
-  </si>
-  <si>
-    <t>Item 13</t>
-  </si>
-  <si>
-    <t>Item 14</t>
-  </si>
-  <si>
-    <t>Item 15</t>
-  </si>
-  <si>
-    <t>Item 16</t>
-  </si>
-  <si>
-    <t>Item 17</t>
-  </si>
-  <si>
-    <t>Item 18</t>
-  </si>
-  <si>
-    <t>Item 19</t>
-  </si>
-  <si>
-    <t>Item 20</t>
-  </si>
-  <si>
     <t>For Reorder</t>
   </si>
   <si>
@@ -143,6 +110,12 @@
   </si>
   <si>
     <t>Checked by:</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -210,7 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -272,6 +245,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,7 +260,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -297,6 +273,24 @@
         <strike/>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -526,9 +520,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Business Table" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -658,7 +652,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>661969</xdr:colOff>
+      <xdr:colOff>840874</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1303347</xdr:rowOff>
     </xdr:to>
@@ -700,7 +694,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>762897</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>192502</xdr:rowOff>
@@ -1050,22 +1044,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:J23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="B3:J23"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="For Reorder" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:K13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B3:K13"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="For Reorder" dataDxfId="11">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Name" dataDxfId="9"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity in Stock" dataDxfId="7"/>
-    <tableColumn id="7" name="Inventory Value" dataDxfId="6">
+    <tableColumn id="3" name="Name" dataDxfId="10"/>
+    <tableColumn id="4" name="Description" dataDxfId="2"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity in Stock" dataDxfId="8"/>
+    <tableColumn id="7" name="Inventory Value" dataDxfId="7">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Reorder Level" dataDxfId="5"/>
-    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="4"/>
-    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="3"/>
-    <tableColumn id="11" name="Discontinued?" dataDxfId="2"/>
+    <tableColumn id="8" name="Reorder Level" dataDxfId="6"/>
+    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="5"/>
+    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="4"/>
+    <tableColumn id="11" name="Discontinued?" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1274,691 +1269,417 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K27"/>
+  <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="10.81640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="1.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="3"/>
+    <col min="3" max="3" width="14.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="10.81640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="1.81640625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12">
         <v>51</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>26</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>1326</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>69</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>13</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12">
         <v>93</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>132</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>12276</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>231</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12">
         <v>57</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>151</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8607</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>114</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>11</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="19">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
         <v>19</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F7" s="20">
         <v>191</v>
       </c>
-      <c r="F7" s="21">
+      <c r="G7" s="21">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3629</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="20">
         <v>190</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>6</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>50</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12">
         <v>75</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>62</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>4650</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>39</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>12</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="12">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>14</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>154</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>9</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>13</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12">
+        <v>15</v>
+      </c>
+      <c r="E10" s="12">
         <v>56</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>58</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3248</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>109</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>100</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12">
+        <v>16</v>
+      </c>
+      <c r="E11" s="12">
         <v>38</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>101</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3838</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>162</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12">
         <v>59</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>122</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>7198</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>82</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12">
+        <v>18</v>
+      </c>
+      <c r="E13" s="12">
         <v>50</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>175</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8750</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>283</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>8</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5">
-        <v>176</v>
-      </c>
-      <c r="F14" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>10384</v>
-      </c>
-      <c r="G14" s="5">
-        <v>229</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>100</v>
-      </c>
+    <row r="15" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="12">
-        <v>18</v>
-      </c>
-      <c r="E15" s="5">
+    <row r="16" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>396</v>
-      </c>
-      <c r="G15" s="5">
-        <v>36</v>
-      </c>
-      <c r="H15" s="5">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5">
-        <v>50</v>
-      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22"/>
+      <c r="J16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="24"/>
     </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="12">
-        <v>26</v>
-      </c>
-      <c r="E16" s="5">
-        <v>72</v>
-      </c>
-      <c r="F16" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1872</v>
-      </c>
-      <c r="G16" s="5">
-        <v>102</v>
-      </c>
-      <c r="H16" s="5">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="12">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5">
-        <v>62</v>
-      </c>
-      <c r="F17" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>2604</v>
-      </c>
-      <c r="G17" s="5">
-        <v>83</v>
-      </c>
-      <c r="H17" s="5">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="12">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5">
-        <v>46</v>
-      </c>
-      <c r="F18" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1472</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="C17" s="24"/>
+      <c r="D17" s="22"/>
+      <c r="J17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="5">
-        <v>15</v>
-      </c>
-      <c r="I18" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12">
-        <v>90</v>
-      </c>
-      <c r="E19" s="5">
-        <v>96</v>
-      </c>
-      <c r="F19" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>8640</v>
-      </c>
-      <c r="G19" s="5">
-        <v>180</v>
-      </c>
-      <c r="H19" s="5">
-        <v>3</v>
-      </c>
-      <c r="I19" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="12">
-        <v>97</v>
-      </c>
-      <c r="E20" s="5">
-        <v>57</v>
-      </c>
-      <c r="F20" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>5529</v>
-      </c>
-      <c r="G20" s="5">
-        <v>98</v>
-      </c>
-      <c r="H20" s="5">
-        <v>12</v>
-      </c>
-      <c r="I20" s="5">
-        <v>50</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="12">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>6</v>
-      </c>
-      <c r="F21" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>72</v>
-      </c>
-      <c r="G21" s="5">
-        <v>7</v>
-      </c>
-      <c r="H21" s="5">
-        <v>13</v>
-      </c>
-      <c r="I21" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="12">
-        <v>82</v>
-      </c>
-      <c r="E22" s="5">
-        <v>143</v>
-      </c>
-      <c r="F22" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>11726</v>
-      </c>
-      <c r="G22" s="5">
-        <v>164</v>
-      </c>
-      <c r="H22" s="5">
-        <v>12</v>
-      </c>
-      <c r="I22" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="2">
-        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="12">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5">
-        <v>124</v>
-      </c>
-      <c r="F23" s="10">
-        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1984</v>
-      </c>
-      <c r="G23" s="5">
-        <v>113</v>
-      </c>
-      <c r="H23" s="5">
-        <v>14</v>
-      </c>
-      <c r="I23" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="I26" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="I27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="23"/>
+      <c r="K17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:J23">
+  <conditionalFormatting sqref="B4:K13">
     <cfRule type="expression" dxfId="1" priority="24">
-      <formula>$J4="Yes"</formula>
+      <formula>$K4="Yes"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="25">
       <formula>$B4=1</formula>
@@ -1967,18 +1688,18 @@
   <dataValidations xWindow="67" yWindow="628" count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="E3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="D3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J23">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3:D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="K3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="E3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K13">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="K2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
@@ -1993,7 +1714,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{22614FA3-6814-43BC-85E4-CF5B29361B41}">
+          <x14:cfRule type="iconSet" priority="32" id="{22614FA3-6814-43BC-85E4-CF5B29361B41}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2009,7 +1730,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B4:B23</xm:sqref>
+          <xm:sqref>B4:B13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2027,6 +1748,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2234,15 +1964,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
@@ -2252,6 +1973,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2269,22 +2008,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -7,12 +7,14 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
+    <sheet name="Supplies" sheetId="1" r:id="rId1"/>
+    <sheet name="CCL" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory List'!$J$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
-    <definedName name="valHighlight">IFERROR(IF('Inventory List'!$K$2="Yes", TRUE, FALSE),FALSE)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supplies!$K$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Supplies!$1:$3</definedName>
+    <definedName name="valHighlight">IFERROR(IF(Supplies!$L$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Highlight items to reorder?</t>
   </si>
@@ -67,9 +69,6 @@
     <t>Discontinued?</t>
   </si>
   <si>
-    <t>Item 2</t>
-  </si>
-  <si>
     <t>Item 3</t>
   </si>
   <si>
@@ -116,6 +115,63 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless Mouse </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Purchase Date</t>
+  </si>
+  <si>
+    <t>Warranty Expiry Date</t>
+  </si>
+  <si>
+    <t>Date Set Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>PC NO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse </t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>System Unit</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>Care of</t>
+  </si>
+  <si>
+    <t>DCS</t>
+  </si>
+  <si>
+    <t>Sir Nico</t>
   </si>
 </sst>
 </file>
@@ -183,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,6 +306,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,7 +319,38 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -294,6 +384,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -308,7 +416,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -318,11 +430,16 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -332,11 +449,16 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -346,7 +468,62 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -375,6 +552,97 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -391,6 +659,53 @@
       </font>
       <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -520,9 +835,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Business Table" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -548,16 +863,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
+      <xdr:rowOff>1386840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1737360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -572,8 +887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152399" y="514350"/>
-          <a:ext cx="1986915" cy="956310"/>
+          <a:off x="4030979" y="1386840"/>
+          <a:ext cx="2354581" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,38 +918,26 @@
         <a:p>
           <a:pPr marL="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1600" b="1">
               <a:solidFill>
-                <a:srgbClr val="7CEC66"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>Inventory List</a:t>
+            <a:t>2024</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="339933"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>DCS</a:t>
+            <a:t> Inventory Supplies</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="339933"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-            </a:rPr>
-            <a:t> OFFICE</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
-              <a:srgbClr val="339933"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="+mj-lt"/>
           </a:endParaRPr>
@@ -645,16 +948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>945527</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>282919</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>261666</xdr:rowOff>
+      <xdr:rowOff>182153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>840874</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1018</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1303347</xdr:rowOff>
+      <xdr:rowOff>1223834</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -681,8 +984,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2103767" y="261666"/>
-          <a:ext cx="1126142" cy="1041681"/>
+          <a:off x="2674936" y="182153"/>
+          <a:ext cx="1127799" cy="1041681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -695,9 +998,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762897</xdr:colOff>
+      <xdr:colOff>1220098</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>192502</xdr:rowOff>
+      <xdr:rowOff>139494</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3200400" cy="1211742"/>
     <xdr:sp macro="" textlink="">
@@ -713,7 +1016,494 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3330837" y="192502"/>
+          <a:off x="3612115" y="139494"/>
+          <a:ext cx="3200400" cy="1211742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Republic of the Philippines</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CAVITE STATE UNIVERSITY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CCAT Campus</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rosario, Cavite</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (046) 437-9505 / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(046) 437-6659</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>cvsurosario@cvsu.edu.ph</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>www.cvsu-rosario.edu.ph</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480059</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1440180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1737360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1" descr="Inventory List" title="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5135879" y="1440180"/>
+          <a:ext cx="2827021" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>2024</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> Inventory Computer Lab </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>282919</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>243113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122938</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1475294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3650959" y="243113"/>
+          <a:ext cx="1127799" cy="1232181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>244738</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101394</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3200400" cy="1211742"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4900558" y="101394"/>
           <a:ext cx="3200400" cy="1211742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1044,23 +1834,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:K13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="B3:K13"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="For Reorder" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:L13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B3:L13"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="For Reorder" dataDxfId="27">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Name" dataDxfId="10"/>
-    <tableColumn id="4" name="Description" dataDxfId="2"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity in Stock" dataDxfId="8"/>
-    <tableColumn id="7" name="Inventory Value" dataDxfId="7">
+    <tableColumn id="2" name="Care of" dataDxfId="0"/>
+    <tableColumn id="3" name="Name" dataDxfId="26"/>
+    <tableColumn id="4" name="Description" dataDxfId="25"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="24" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity in Stock" dataDxfId="23"/>
+    <tableColumn id="7" name="Inventory Value" dataDxfId="22">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Reorder Level" dataDxfId="6"/>
-    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="5"/>
-    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="4"/>
-    <tableColumn id="11" name="Discontinued?" dataDxfId="3"/>
+    <tableColumn id="8" name="Reorder Level" dataDxfId="21"/>
+    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="20"/>
+    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="19"/>
+    <tableColumn id="11" name="Discontinued?" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Inventory_List_Table3" displayName="Inventory_List_Table3" ref="A3:K8" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:K8"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="CCL" dataDxfId="15">
+      <calculatedColumnFormula>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="PC NO." dataDxfId="6"/>
+    <tableColumn id="3" name="Category" dataDxfId="7"/>
+    <tableColumn id="4" name="Brand" dataDxfId="5"/>
+    <tableColumn id="12" name="Model" dataDxfId="13"/>
+    <tableColumn id="13" name="Serial Number" dataDxfId="12"/>
+    <tableColumn id="14" name="Purchase Date" dataDxfId="11"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="15" name="Warranty Expiry Date" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="16" name="Location " dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="17" name="Condition" dataDxfId="8" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1269,443 +2082,457 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.81640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="1.81640625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="3"/>
+    <col min="3" max="3" width="12" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.81640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13" style="4" customWidth="1"/>
+    <col min="13" max="13" width="1.81640625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
+    <row r="1" spans="2:13" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="6"/>
+    <row r="2" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="6"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" s="2" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12">
         <v>51</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>26</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>1326</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>69</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>13</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12">
         <v>93</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>132</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>12276</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>231</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12">
         <v>57</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>151</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8607</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>114</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>11</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19">
         <v>19</v>
       </c>
-      <c r="F7" s="20">
+      <c r="G7" s="20">
         <v>191</v>
       </c>
-      <c r="G7" s="21">
+      <c r="H7" s="21">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3629</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>190</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>6</v>
       </c>
-      <c r="J7" s="20">
+      <c r="K7" s="20">
         <v>50</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12">
         <v>75</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>62</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>4650</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>39</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>12</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5">
         <v>14</v>
       </c>
-      <c r="E9" s="12">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>154</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>9</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>13</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="12">
         <v>56</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>58</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3248</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>109</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>7</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>100</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12">
         <v>38</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>101</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>3838</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>162</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="12">
         <v>59</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>122</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>7198</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>82</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>3</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="12">
         <v>50</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>175</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
         <v>8750</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>283</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>8</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="22"/>
+      <c r="K16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="25"/>
     </row>
-    <row r="16" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+    <row r="17" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22"/>
-      <c r="J16" s="24" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="22"/>
+      <c r="K17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22"/>
-      <c r="J17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:K13">
-    <cfRule type="expression" dxfId="1" priority="24">
-      <formula>$K4="Yes"</formula>
+  <conditionalFormatting sqref="B4:L13">
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>$L4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>$B4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="_x000a_This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3:D3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="K3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="J3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="I3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="G3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="F3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="E3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="B3:C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="D3:E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter yes if the item has been discontinued. When a yes is entered, the corresponding row is highlighted a light grey and the font style changed to strikethrough" sqref="L3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in reorder for each item in this column" sqref="K3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days it takes to reorder each item in this column" sqref="J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="F3"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L13">
       <formula1>"Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="L2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1730,11 +2557,264 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B4:B13</xm:sqref>
+          <xm:sqref>B4:C13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" customWidth="1"/>
+    <col min="10" max="11" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="158.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="23">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="12">
+        <v>51</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="12">
+        <v>93</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="12">
+        <v>57</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19">
+        <v>19</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="12">
+        <v>75</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A4:K8">
+    <cfRule type="expression" dxfId="2" priority="33">
+      <formula>$L4="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>$C4=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="H3:K3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="A3:B3"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="35" id="{32031D6E-9839-4734-B466-5B2246B77D37}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A4:B8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1748,15 +2828,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1964,6 +3035,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
@@ -1973,24 +3053,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2008,4 +3070,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Supplies" sheetId="1" r:id="rId1"/>
+    <sheet name="SUPPLIES" sheetId="1" r:id="rId1"/>
     <sheet name="CCL" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="SET UP COMPUTER" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Supplies!$K$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Supplies!$1:$3</definedName>
-    <definedName name="valHighlight">IFERROR(IF(Supplies!$L$2="Yes", TRUE, FALSE),FALSE)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SUPPLIES!$K$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">SUPPLIES!$1:$3</definedName>
+    <definedName name="valHighlight">IFERROR(IF(SUPPLIES!$L$2="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
   <si>
     <t>Highlight items to reorder?</t>
   </si>
@@ -69,90 +69,24 @@
     <t>Discontinued?</t>
   </si>
   <si>
-    <t>Item 3</t>
-  </si>
-  <si>
-    <t>Item 4</t>
-  </si>
-  <si>
-    <t>Item 5</t>
-  </si>
-  <si>
-    <t>Item 6</t>
-  </si>
-  <si>
-    <t>Item 7</t>
-  </si>
-  <si>
     <t>Item 8</t>
   </si>
   <si>
-    <t>Item 9</t>
-  </si>
-  <si>
-    <t>Item 10</t>
-  </si>
-  <si>
     <t>For Reorder</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Acknowledge by: </t>
-  </si>
-  <si>
-    <t>_____________________________________</t>
-  </si>
-  <si>
-    <t>SIGNATURE OVER PRINTED NAME</t>
-  </si>
-  <si>
-    <t>Checked by:</t>
-  </si>
-  <si>
     <t>Keyboard</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Wireless Mouse </t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Purchase Date</t>
-  </si>
-  <si>
-    <t>Warranty Expiry Date</t>
-  </si>
-  <si>
-    <t>Date Set Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location </t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>CCL</t>
   </si>
   <si>
-    <t>PC NO.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mouse </t>
   </si>
   <si>
@@ -172,6 +106,105 @@
   </si>
   <si>
     <t>Sir Nico</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CvSU-NEXUS</t>
+  </si>
+  <si>
+    <t>CvSU-PPSS</t>
+  </si>
+  <si>
+    <t>CvSU-ICT OFFICE</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>INK</t>
+  </si>
+  <si>
+    <t>Correction Tape</t>
+  </si>
+  <si>
+    <t>Digital Trainer</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>NEXUS</t>
+  </si>
+  <si>
+    <t>ICT OFFICE</t>
+  </si>
+  <si>
+    <t>PPSS</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>SERIAL NUMBER</t>
+  </si>
+  <si>
+    <t>PURCHASE DATE</t>
+  </si>
+  <si>
+    <t>UNIT PRICE</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>PC NO</t>
+  </si>
+  <si>
+    <t>WARRANTY EXPIRY DATE</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce 210</t>
+  </si>
+  <si>
+    <t>Graphics Card</t>
+  </si>
+  <si>
+    <t>REQUESTED BY</t>
+  </si>
+  <si>
+    <t>DETAILS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION </t>
+  </si>
+  <si>
+    <t>Wireless</t>
   </si>
 </sst>
 </file>
@@ -182,7 +215,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +243,24 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,12 +357,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -319,7 +433,551 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -336,33 +994,13 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFBD"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFBD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -380,7 +1018,8 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -398,21 +1037,8 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -435,6 +1061,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -449,8 +1089,7 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -468,8 +1107,22 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -537,36 +1190,6 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -588,6 +1211,24 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -835,9 +1476,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Business Table" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="92"/>
+      <tableStyleElement type="headerRow" dxfId="91"/>
+      <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -864,15 +1505,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>30479</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1386840</xdr:rowOff>
+      <xdr:rowOff>1379220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1737360</xdr:rowOff>
+      <xdr:rowOff>1729740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -887,8 +1528,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4030979" y="1386840"/>
-          <a:ext cx="2354581" cy="350520"/>
+          <a:off x="4838699" y="1379220"/>
+          <a:ext cx="2720341" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,7 +1574,7 @@
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t> Inventory Supplies</a:t>
+            <a:t> INVENTORY SUPPLIES</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -1351,15 +1992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>480059</xdr:colOff>
+      <xdr:colOff>76647</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1440180</xdr:rowOff>
+      <xdr:rowOff>1574651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
+      <xdr:colOff>328108</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1737360</xdr:rowOff>
+      <xdr:rowOff>1871831</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1374,8 +2015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5135879" y="1440180"/>
-          <a:ext cx="2827021" cy="297180"/>
+          <a:off x="5625800" y="1574651"/>
+          <a:ext cx="2869155" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,16 +2076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>282919</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1068227</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>243113</xdr:rowOff>
+      <xdr:rowOff>309451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>122938</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>908245</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1475294</xdr:rowOff>
+      <xdr:rowOff>1541632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1471,8 +2112,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3650959" y="243113"/>
-          <a:ext cx="1127799" cy="1232181"/>
+          <a:off x="4035545" y="309451"/>
+          <a:ext cx="1130936" cy="1232181"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,10 +2125,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>244738</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1177067</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101394</xdr:rowOff>
+      <xdr:rowOff>253795</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3200400" cy="1211742"/>
     <xdr:sp macro="" textlink="">
@@ -1503,7 +2144,494 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4900558" y="101394"/>
+          <a:off x="5435302" y="253795"/>
+          <a:ext cx="3200400" cy="1211742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Republic of the Philippines</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CAVITE STATE UNIVERSITY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CCAT Campus</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rosario, Cavite</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (046) 437-9505 / </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Wingdings 2" panose="05020102010507070707" pitchFamily="18" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(046) 437-6659</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>cvsurosario@cvsu.edu.ph</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>www.cvsu-rosario.edu.ph</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>593014</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1564790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1861970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1" descr="Inventory List" title="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5783579" y="1564790"/>
+          <a:ext cx="2257763" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>2024</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> Set Up Computer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>526759</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450597</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1505774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3440288" y="83093"/>
+          <a:ext cx="1125109" cy="1422681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>86510</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>222417</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3200400" cy="1211742"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5277075" y="222417"/>
           <a:ext cx="3200400" cy="1211742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1834,46 +2962,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:L13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="B3:L13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:L14" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="B3:L14"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="For Reorder" dataDxfId="27">
+    <tableColumn id="1" name="For Reorder" dataDxfId="87">
       <calculatedColumnFormula>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Care of" dataDxfId="0"/>
-    <tableColumn id="3" name="Name" dataDxfId="26"/>
-    <tableColumn id="4" name="Description" dataDxfId="25"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="24" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Quantity in Stock" dataDxfId="23"/>
-    <tableColumn id="7" name="Inventory Value" dataDxfId="22">
+    <tableColumn id="2" name="Care of" dataDxfId="77"/>
+    <tableColumn id="3" name="Name" dataDxfId="86"/>
+    <tableColumn id="4" name="Description" dataDxfId="85"/>
+    <tableColumn id="5" name="Unit Price" dataDxfId="84" dataCellStyle="Currency"/>
+    <tableColumn id="6" name="Quantity in Stock" dataDxfId="83"/>
+    <tableColumn id="7" name="Inventory Value" dataDxfId="82">
       <calculatedColumnFormula>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Reorder Level" dataDxfId="21"/>
-    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="20"/>
-    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="19"/>
-    <tableColumn id="11" name="Discontinued?" dataDxfId="18"/>
+    <tableColumn id="8" name="Reorder Level" dataDxfId="81"/>
+    <tableColumn id="9" name="Reorder Time in Days" dataDxfId="80"/>
+    <tableColumn id="10" name="Quantity in Reorder" dataDxfId="79"/>
+    <tableColumn id="11" name="Discontinued?" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Inventory_List_Table3" displayName="Inventory_List_Table3" ref="A3:K8" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:K8"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="CCL" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Inventory_List_Table3" displayName="Inventory_List_Table3" ref="A3:J13" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A3:J13"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="CCL" dataDxfId="63">
       <calculatedColumnFormula>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PC NO." dataDxfId="6"/>
-    <tableColumn id="3" name="Category" dataDxfId="7"/>
-    <tableColumn id="4" name="Brand" dataDxfId="5"/>
-    <tableColumn id="12" name="Model" dataDxfId="13"/>
-    <tableColumn id="13" name="Serial Number" dataDxfId="12"/>
-    <tableColumn id="14" name="Purchase Date" dataDxfId="11"/>
-    <tableColumn id="5" name="Unit Price" dataDxfId="14" dataCellStyle="Currency"/>
-    <tableColumn id="15" name="Warranty Expiry Date" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="16" name="Location " dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="17" name="Condition" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="18" name="PC NO" dataDxfId="62"/>
+    <tableColumn id="3" name="CATEGORY" dataDxfId="61"/>
+    <tableColumn id="4" name="BRAND" dataDxfId="60"/>
+    <tableColumn id="12" name="MODEL" dataDxfId="59"/>
+    <tableColumn id="13" name="SERIAL NUMBER" dataDxfId="58"/>
+    <tableColumn id="14" name="PURCHASE DATE" dataDxfId="57"/>
+    <tableColumn id="5" name="UNIT PRICE" dataDxfId="56" dataCellStyle="Currency"/>
+    <tableColumn id="15" name="WARRANTY EXPIRY DATE" dataDxfId="55" dataCellStyle="Currency"/>
+    <tableColumn id="17" name="CONDITION" dataDxfId="54" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Inventory_List_Table34" displayName="Inventory_List_Table34" ref="A2:K32" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A2:K32"/>
+  <tableColumns count="11">
+    <tableColumn id="18" name="REQUESTED BY" dataDxfId="70"/>
+    <tableColumn id="3" name="CATEGORY" dataDxfId="68"/>
+    <tableColumn id="4" name="BRAND" dataDxfId="69"/>
+    <tableColumn id="12" name="MODEL" dataDxfId="74"/>
+    <tableColumn id="19" name="DETAILS" dataDxfId="64"/>
+    <tableColumn id="13" name="SERIAL NUMBER" dataDxfId="73"/>
+    <tableColumn id="14" name="PURCHASE DATE" dataDxfId="72"/>
+    <tableColumn id="5" name="UNIT PRICE" dataDxfId="71" dataCellStyle="Currency"/>
+    <tableColumn id="15" name="WARRANTY EXPIRY DATE" dataDxfId="67" dataCellStyle="Currency"/>
+    <tableColumn id="16" name="LOCATION " dataDxfId="65" dataCellStyle="Currency"/>
+    <tableColumn id="17" name="CONDITION" dataDxfId="66" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2082,17 +3229,17 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" style="12" customWidth="1"/>
@@ -2101,24 +3248,24 @@
     <col min="9" max="9" width="8.6328125" style="5" customWidth="1"/>
     <col min="10" max="11" width="10.81640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="13" width="1.81640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="4.26953125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2138,16 +3285,16 @@
     </row>
     <row r="3" spans="2:13" s="2" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>3</v>
@@ -2174,29 +3321,29 @@
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K4" s="5">
         <v>50</v>
@@ -2207,204 +3354,236 @@
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>44</v>
+      <c r="C5" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F5" s="12">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>12276</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="J5" s="5">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K5" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
+      <c r="B6" s="46">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="12">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="H6" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>8607</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="J6" s="5">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17">
+      <c r="B7" s="46">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="12">
         <v>0</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>19</v>
-      </c>
-      <c r="G7" s="20">
-        <v>191</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3629</v>
-      </c>
-      <c r="I7" s="20">
-        <v>190</v>
-      </c>
-      <c r="J7" s="20">
-        <v>6</v>
-      </c>
-      <c r="K7" s="20">
-        <v>50</v>
-      </c>
-      <c r="L7" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>25</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="2">
+      <c r="B8" s="46">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="12">
-        <v>75</v>
-      </c>
       <c r="G8" s="5">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H8" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J8" s="5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K8" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="12">
-        <v>11</v>
-      </c>
       <c r="G9" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="5">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
+      <c r="B10" s="17">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12">
-        <v>56</v>
-      </c>
-      <c r="G10" s="5">
-        <v>58</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3248</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K10" s="5">
-        <v>100</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F11" s="12">
-        <v>38</v>
-      </c>
-      <c r="G11" s="5">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>9</v>
       </c>
       <c r="H11" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>3838</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2412,27 +3591,30 @@
         <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
         <v>0</v>
       </c>
+      <c r="C12" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" s="12">
-        <v>59</v>
-      </c>
-      <c r="G12" s="5">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>69</v>
       </c>
       <c r="H12" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>7198</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J12" s="5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K12" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2441,75 +3623,88 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="12">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5">
-        <v>175</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>5</v>
       </c>
       <c r="H13" s="10">
         <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
-        <v>8750</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="J13" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K13" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="22"/>
-      <c r="K16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <f>IFERROR((Inventory_List_Table[[#This Row],[Quantity in Stock]]&lt;=Inventory_List_Table[[#This Row],[Reorder Level]])*(Inventory_List_Table[[#This Row],[Discontinued?]]="")*valHighlight,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="22"/>
-      <c r="K17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="25"/>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f>Inventory_List_Table[[#This Row],[Unit Price]]*Inventory_List_Table[[#This Row],[Quantity in Stock]]</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:L13">
-    <cfRule type="expression" dxfId="4" priority="24">
+  <conditionalFormatting sqref="B14 D14:E14 B4:L4 B5:E13 F5:L14">
+    <cfRule type="expression" dxfId="51" priority="39">
       <formula>$L4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>$B4=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="49" priority="141">
+      <formula>$L5="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="142">
+      <formula>$B5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="47" priority="1">
+      <formula>$L14="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="2">
+      <formula>$B14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="67" yWindow="628" count="13">
@@ -2523,16 +3718,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column._x000a__x000a_The inventory value for each item is automatically calculated in this column." sqref="H3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the quantity in stock for each item in this column" sqref="G3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="F3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L13">
-      <formula1>"Yes"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes to enable highlighting of items for reorder. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights." sqref="L2">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Inventory List" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column." sqref="A1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L14">
+      <formula1>"Yes"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -2541,7 +3736,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{22614FA3-6814-43BC-85E4-CF5B29361B41}">
+          <x14:cfRule type="iconSet" priority="327" id="{CF1F0B92-2CC0-4CF0-AB52-DF3B73001F81}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2557,7 +3752,26 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B4:C13</xm:sqref>
+          <xm:sqref>C5:C8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="332" id="{22614FA3-6814-43BC-85E4-CF5B29361B41}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B4:C4 B5:B8 B9:C14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2567,38 +3781,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="7" width="15.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" customWidth="1"/>
-    <col min="10" max="11" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="158.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="1" spans="1:10" ht="158.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2607,159 +3822,271 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="D3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
         <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="12">
-        <v>51</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="B4" s="37"/>
+      <c r="C4" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
         <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="12">
-        <v>93</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="B5" s="37"/>
+      <c r="C5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
         <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="12">
-        <v>57</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
+      <c r="B6" s="37"/>
+      <c r="C6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="40">
         <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19">
-        <v>19</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="B7" s="40"/>
+      <c r="C7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="43">
         <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="12">
-        <v>75</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="43">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="43">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="43">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="43">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
+        <f>IFERROR((#REF!&lt;=#REF!)*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:K8">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>$L4="Yes"</formula>
+  <conditionalFormatting sqref="A4:J8">
+    <cfRule type="expression" dxfId="45" priority="102">
+      <formula>$K4="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="44" priority="103">
       <formula>$C4=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="43" priority="104">
+      <formula>$K10="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="105">
+      <formula>$C9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="expression" dxfId="41" priority="106">
+      <formula>$K14="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="107">
+      <formula>$C11=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B12 D9:J12">
+    <cfRule type="expression" dxfId="39" priority="110">
+      <formula>$K9="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="111">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13 D13:J13">
+    <cfRule type="expression" dxfId="37" priority="112">
+      <formula>$K13="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="113">
+      <formula>$C9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12 C9">
+    <cfRule type="expression" dxfId="35" priority="116">
+      <formula>$K9="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="117">
+      <formula>$C7=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="expression" dxfId="33" priority="122">
+      <formula>$K13="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="123">
+      <formula>$C9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="H3:K3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="C3:G3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="A3:B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="H3:J3"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2787,7 +4114,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>A4:B8</xm:sqref>
+          <xm:sqref>A4:B13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2797,24 +4124,846 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>33</v>
       </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="28"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="28"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="28"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A3:K3 A4:I6 K4:K6 H7:H10 A4:A31">
+    <cfRule type="expression" dxfId="31" priority="107">
+      <formula>$L3="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="108">
+      <formula>$B3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I31 K7:K31 C7:G31 A7:A31">
+    <cfRule type="expression" dxfId="29" priority="116">
+      <formula>$L7="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="117">
+      <formula>#REF!=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="27" priority="237">
+      <formula>#REF!="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="238">
+      <formula>$B7=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J31">
+    <cfRule type="expression" dxfId="25" priority="30">
+      <formula>$L4="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="31">
+      <formula>$B4=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B26">
+    <cfRule type="expression" dxfId="23" priority="14">
+      <formula>$L23="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>$B23=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>#REF!="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="17">
+      <formula>$B27=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B16">
+    <cfRule type="expression" dxfId="19" priority="8">
+      <formula>$L13="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>$B13=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="17" priority="10">
+      <formula>#REF!="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>$B17=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B12">
+    <cfRule type="expression" dxfId="15" priority="286">
+      <formula>$L32="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="287">
+      <formula>$B8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="13" priority="288">
+      <formula>$L42="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="289">
+      <formula>$B32=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="11" priority="290">
+      <formula>$L42="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="291">
+      <formula>$B22=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="9" priority="292">
+      <formula>#REF!="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="293">
+      <formula>$B28=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B31">
+    <cfRule type="expression" dxfId="7" priority="294">
+      <formula>$L40="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="295">
+      <formula>$B29=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="5" priority="296">
+      <formula>#REF!="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="297">
+      <formula>$B18=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B21">
+    <cfRule type="expression" dxfId="3" priority="298">
+      <formula>$L40="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="299">
+      <formula>$B19=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H32">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$L11="Yes"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$B11=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="B2:G2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="H2:K2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This is an automated column. _x000a__x000a_A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in L2 and the item meets the reorder criteria." sqref="A2"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="265" id="{DD23FF93-D842-442B-AE58-53E462F638CB}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>-1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A3:A32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F8685C-2E2B-47C3-BBE0-20400BD3C073}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175E6A6D-F710-4299-8F34-A1F26A4B922A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUPPLIES" sheetId="1" r:id="rId1"/>
@@ -6121,8 +6121,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8247,7 +8247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/Inventory list.xlsx
+++ b/Inventory list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175E6A6D-F710-4299-8F34-A1F26A4B922A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09AFC3-1D33-469E-87BA-30A3E86E63D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUPPLIES" sheetId="1" r:id="rId1"/>
@@ -1024,9 +1024,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1057,6 +1054,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2762,6 +2762,24 @@
         <strike/>
         <color theme="1" tint="0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2810,7 +2828,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2828,7 +2846,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2853,13 +2870,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2878,6 +2888,13 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2902,7 +2919,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2920,6 +2937,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2944,6 +2962,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2963,6 +2982,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2981,14 +3006,41 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3006,41 +3058,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3063,6 +3082,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3077,8 +3111,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3096,23 +3129,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3130,6 +3147,12 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3148,6 +3171,12 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3212,6 +3241,60 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3222,7 +3305,27 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF339933"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3240,7 +3343,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3258,41 +3362,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF339933"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3315,6 +3386,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3329,23 +3415,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3381,6 +3451,12 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3399,12 +3475,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3423,13 +3493,21 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3447,13 +3525,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3471,79 +3543,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5852,65 +5852,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Inventory_List_Table34" displayName="Inventory_List_Table34" ref="A3:L33" totalsRowShown="0" headerRowDxfId="282" dataDxfId="281">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Inventory_List_Table34" displayName="Inventory_List_Table34" ref="A3:L33" totalsRowShown="0" headerRowDxfId="297" dataDxfId="296">
   <autoFilter ref="A3:L33" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="PC NO." dataDxfId="280"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="REQUESTED BY" dataDxfId="279"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CATEGORY" dataDxfId="278"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="BRAND" dataDxfId="277"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="MODEL" dataDxfId="276"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="DETAILS" dataDxfId="275"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SERIAL NUMBER" dataDxfId="274"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="PURCHASE DATE" dataDxfId="273"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="UNIT PRICE" dataDxfId="272" dataCellStyle="Currency"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="WARRANTY EXPIRY DATE" dataDxfId="271" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="LOCATION " dataDxfId="270" dataCellStyle="Currency"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="CONDITION" dataDxfId="269" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="PC NO." dataDxfId="295"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="REQUESTED BY" dataDxfId="294"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="CATEGORY" dataDxfId="293"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="BRAND" dataDxfId="292"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="MODEL" dataDxfId="291"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="DETAILS" dataDxfId="290"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SERIAL NUMBER" dataDxfId="289"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="PURCHASE DATE" dataDxfId="288"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="UNIT PRICE" dataDxfId="287" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="WARRANTY EXPIRY DATE" dataDxfId="286" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="LOCATION " dataDxfId="285" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="CONDITION" dataDxfId="284" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Inventory_List_Table3" displayName="Inventory_List_Table3" ref="A3:M27" totalsRowShown="0" headerRowDxfId="297" dataDxfId="296">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Inventory_List_Table3" displayName="Inventory_List_Table3" ref="A3:M27" totalsRowShown="0" headerRowDxfId="283" dataDxfId="282">
   <autoFilter ref="A3:M27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="CCL" dataDxfId="295"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PC NO" dataDxfId="294"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CATEGORY2" dataDxfId="293"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="BRAND" dataDxfId="292"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="MODEL" dataDxfId="291"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DESCRIPTION" dataDxfId="290"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRODUCT ID" dataDxfId="289"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="INVENTORY ITEM NO." dataDxfId="288"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SERIAL NUMBER" dataDxfId="287"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="PURCHASE DATE" dataDxfId="286"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UNIT PRICE" dataDxfId="285" dataCellStyle="Currency"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="WARRANTY EXPIRY DATE" dataDxfId="284" dataCellStyle="Currency"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="CONDITION" dataDxfId="283" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="CCL" dataDxfId="281"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="PC NO" dataDxfId="280"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CATEGORY2" dataDxfId="279"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="BRAND" dataDxfId="278"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="MODEL" dataDxfId="277"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DESCRIPTION" dataDxfId="276"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRODUCT ID" dataDxfId="275"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="INVENTORY ITEM NO." dataDxfId="274"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SERIAL NUMBER" dataDxfId="273"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="PURCHASE DATE" dataDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="UNIT PRICE" dataDxfId="271" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="WARRANTY EXPIRY DATE" dataDxfId="270" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="CONDITION" dataDxfId="269" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Inventory_List_Table345" displayName="Inventory_List_Table345" ref="A3:K110" totalsRowShown="0" headerRowDxfId="268" dataDxfId="267">
-  <autoFilter ref="A3:K110" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Inventory_List_Table345" displayName="Inventory_List_Table345" ref="A3:K100" totalsRowShown="0" headerRowDxfId="268" dataDxfId="267">
+  <autoFilter ref="A3:K100" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="11">
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="QUANTITY" dataDxfId="266"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="UNIT COST" dataDxfId="265" dataCellStyle="Currency"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="TOTAL COST" dataDxfId="264" dataCellStyle="Currency">
       <calculatedColumnFormula>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SUPPLY" dataDxfId="259" dataCellStyle="Currency"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="DESCRIPTION" dataDxfId="257"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="SN" dataDxfId="258" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="INVENTORY             ITEM NO." dataDxfId="263"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DATE ACQUIRED" dataDxfId="262"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ESTIMATED USEFUL LIFE" dataDxfId="261"/>
-    <tableColumn id="3" xr3:uid="{27590B91-4E83-4AAD-ADC7-7BD4D2CB85DA}" name="LOCATION" dataDxfId="256"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="CONDITION" dataDxfId="260"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="SUPPLY" dataDxfId="263" dataCellStyle="Currency"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="DESCRIPTION" dataDxfId="262"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="SN" dataDxfId="261" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="INVENTORY             ITEM NO." dataDxfId="260"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="DATE ACQUIRED" dataDxfId="259"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ESTIMATED USEFUL LIFE" dataDxfId="258"/>
+    <tableColumn id="3" xr3:uid="{27590B91-4E83-4AAD-ADC7-7BD4D2CB85DA}" name="LOCATION" dataDxfId="257"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="CONDITION" dataDxfId="256"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6121,7 +6121,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -6134,7 +6134,7 @@
     <col min="5" max="5" width="12.7265625" style="56" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" style="16" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.1796875" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.81640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="13" style="4" customWidth="1"/>
@@ -6143,17 +6143,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
@@ -6709,17 +6709,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -7590,8 +7590,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7611,19 +7611,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
@@ -8245,10 +8245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A73" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -8257,7 +8257,7 @@
     <col min="2" max="2" width="14.36328125" style="39" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" style="39" customWidth="1"/>
     <col min="4" max="4" width="28.81640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="66" customWidth="1"/>
     <col min="6" max="6" width="21.08984375" style="43" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" style="17" customWidth="1"/>
     <col min="8" max="8" width="17.81640625" style="17" customWidth="1"/>
@@ -8266,24 +8266,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="140.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="61"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
       <c r="H2" s="47"/>
@@ -8340,7 +8340,7 @@
       <c r="D4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="41"/>
       <c r="G4" s="21" t="s">
         <v>70</v>
@@ -8366,7 +8366,7 @@
       <c r="D5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>75</v>
       </c>
       <c r="F5" s="42"/>
@@ -8380,7 +8380,7 @@
       <c r="J5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
@@ -8396,7 +8396,7 @@
       <c r="D6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="41">
@@ -8426,7 +8426,7 @@
       <c r="D7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="42">
@@ -8456,7 +8456,7 @@
       <c r="D8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="65" t="s">
         <v>231</v>
       </c>
       <c r="F8" s="50"/>
@@ -8484,7 +8484,7 @@
       <c r="D9" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="66"/>
+      <c r="E9" s="65"/>
       <c r="F9" s="50"/>
       <c r="G9" s="48" t="s">
         <v>213</v>
@@ -8510,7 +8510,7 @@
       <c r="D10" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="50"/>
@@ -8538,7 +8538,7 @@
       <c r="D11" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="42" t="s">
@@ -8566,7 +8566,7 @@
       <c r="D12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>238</v>
       </c>
       <c r="F12" s="50"/>
@@ -8594,7 +8594,7 @@
       <c r="D13" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="63" t="s">
         <v>138</v>
       </c>
       <c r="F13" s="50"/>
@@ -8622,7 +8622,7 @@
       <c r="D14" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F14" s="50" t="s">
@@ -8652,7 +8652,7 @@
       <c r="D15" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F15" s="50" t="s">
@@ -8682,7 +8682,7 @@
       <c r="D16" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F16" s="50" t="s">
@@ -8712,7 +8712,7 @@
       <c r="D17" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F17" s="50" t="s">
@@ -8742,7 +8742,7 @@
       <c r="D18" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F18" s="50" t="s">
@@ -8772,7 +8772,7 @@
       <c r="D19" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="65" t="s">
         <v>172</v>
       </c>
       <c r="F19" s="50" t="s">
@@ -8802,7 +8802,7 @@
       <c r="D20" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F20" s="50">
@@ -8832,7 +8832,7 @@
       <c r="D21" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F21" s="50">
@@ -8862,7 +8862,7 @@
       <c r="D22" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F22" s="50">
@@ -8892,7 +8892,7 @@
       <c r="D23" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F23" s="50">
@@ -8922,7 +8922,7 @@
       <c r="D24" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F24" s="50">
@@ -8952,7 +8952,7 @@
       <c r="D25" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F25" s="50">
@@ -8982,7 +8982,7 @@
       <c r="D26" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F26" s="50">
@@ -9012,7 +9012,7 @@
       <c r="D27" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F27" s="50">
@@ -9042,7 +9042,7 @@
       <c r="D28" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F28" s="50">
@@ -9072,7 +9072,7 @@
       <c r="D29" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="65" t="s">
         <v>185</v>
       </c>
       <c r="F29" s="50">
@@ -9102,7 +9102,7 @@
       <c r="D30" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>228</v>
       </c>
       <c r="F30" s="50" t="s">
@@ -9132,7 +9132,7 @@
       <c r="D31" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="66"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="50" t="s">
         <v>144</v>
       </c>
@@ -9158,7 +9158,7 @@
       <c r="D32" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="66"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="50" t="s">
         <v>146</v>
       </c>
@@ -9184,7 +9184,7 @@
       <c r="D33" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="66"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="50" t="s">
         <v>148</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="D34" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="50"/>
@@ -9238,7 +9238,7 @@
       <c r="D35" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="65" t="s">
         <v>201</v>
       </c>
       <c r="F35" s="50"/>
@@ -9266,7 +9266,7 @@
       <c r="D36" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="50"/>
       <c r="G36" s="48" t="s">
         <v>215</v>
@@ -9290,7 +9290,7 @@
       <c r="D37" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="59" t="s">
         <v>128</v>
       </c>
       <c r="F37" s="50"/>
@@ -9312,7 +9312,7 @@
       <c r="D38" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="63" t="s">
         <v>129</v>
       </c>
       <c r="F38" s="50"/>
@@ -9336,7 +9336,7 @@
       <c r="D39" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="65" t="s">
         <v>223</v>
       </c>
       <c r="F39" s="50"/>
@@ -9364,7 +9364,7 @@
       <c r="D40" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="63" t="s">
         <v>135</v>
       </c>
       <c r="F40" s="50"/>
@@ -9392,7 +9392,7 @@
       <c r="D41" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="63" t="s">
         <v>135</v>
       </c>
       <c r="F41" s="50"/>
@@ -9420,7 +9420,7 @@
       <c r="D42" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="65" t="s">
         <v>234</v>
       </c>
       <c r="F42" s="50"/>
@@ -9444,7 +9444,7 @@
       <c r="D43" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="65" t="s">
         <v>235</v>
       </c>
       <c r="F43" s="50"/>
@@ -9464,7 +9464,7 @@
       <c r="D44" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="65" t="s">
         <v>236</v>
       </c>
       <c r="F44" s="50"/>
@@ -9488,7 +9488,7 @@
       <c r="D45" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="E45" s="66"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="50"/>
       <c r="G45" s="48" t="s">
         <v>217</v>
@@ -9514,7 +9514,7 @@
       <c r="D46" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="65" t="s">
+      <c r="E46" s="64" t="s">
         <v>121</v>
       </c>
       <c r="F46" s="42" t="s">
@@ -9544,7 +9544,7 @@
       <c r="D47" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="65" t="s">
         <v>207</v>
       </c>
       <c r="F47" s="50"/>
@@ -9572,7 +9572,7 @@
       <c r="D48" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="65" t="s">
         <v>164</v>
       </c>
       <c r="F48" s="50"/>
@@ -9600,7 +9600,7 @@
       <c r="D49" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="64" t="s">
         <v>162</v>
       </c>
       <c r="F49" s="50"/>
@@ -9628,7 +9628,7 @@
       <c r="D50" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="63" t="s">
         <v>83</v>
       </c>
       <c r="F50" s="42" t="s">
@@ -9644,7 +9644,7 @@
       <c r="J50" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="68"/>
+      <c r="K50" s="67"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="37">
@@ -9660,7 +9660,7 @@
       <c r="D51" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="59" t="s">
         <v>91</v>
       </c>
       <c r="F51" s="42" t="s">
@@ -9690,7 +9690,7 @@
       <c r="D52" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="59" t="s">
         <v>91</v>
       </c>
       <c r="F52" s="42" t="s">
@@ -9720,7 +9720,7 @@
       <c r="D53" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="59" t="s">
         <v>95</v>
       </c>
       <c r="F53" s="42" t="s">
@@ -9750,7 +9750,7 @@
       <c r="D54" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="59" t="s">
         <v>95</v>
       </c>
       <c r="F54" s="42" t="s">
@@ -9780,7 +9780,7 @@
       <c r="D55" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="59" t="s">
         <v>99</v>
       </c>
       <c r="F55" s="42" t="s">
@@ -9810,7 +9810,7 @@
       <c r="D56" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="59" t="s">
         <v>99</v>
       </c>
       <c r="F56" s="42" t="s">
@@ -9840,7 +9840,7 @@
       <c r="D57" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="59" t="s">
         <v>99</v>
       </c>
       <c r="F57" s="42" t="s">
@@ -9870,7 +9870,7 @@
       <c r="D58" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="60" t="s">
+      <c r="E58" s="59" t="s">
         <v>110</v>
       </c>
       <c r="F58" s="42" t="s">
@@ -9900,7 +9900,7 @@
       <c r="D59" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="60" t="s">
+      <c r="E59" s="59" t="s">
         <v>110</v>
       </c>
       <c r="F59" s="42" t="s">
@@ -9930,7 +9930,7 @@
       <c r="D60" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="60" t="s">
+      <c r="E60" s="59" t="s">
         <v>115</v>
       </c>
       <c r="F60" s="42" t="s">
@@ -9960,7 +9960,7 @@
       <c r="D61" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="59" t="s">
         <v>115</v>
       </c>
       <c r="F61" s="42" t="s">
@@ -9988,7 +9988,7 @@
       <c r="D62" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="64" t="s">
+      <c r="E62" s="63" t="s">
         <v>130</v>
       </c>
       <c r="F62" s="42" t="s">
@@ -10012,7 +10012,7 @@
       <c r="D63" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E63" s="64" t="s">
+      <c r="E63" s="63" t="s">
         <v>130</v>
       </c>
       <c r="F63" s="42" t="s">
@@ -10036,7 +10036,7 @@
       <c r="D64" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="64" t="s">
+      <c r="E64" s="63" t="s">
         <v>130</v>
       </c>
       <c r="F64" s="42" t="s">
@@ -10062,7 +10062,7 @@
       <c r="D65" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="66"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="50"/>
       <c r="G65" s="48" t="s">
         <v>219</v>
@@ -10088,7 +10088,7 @@
       <c r="D66" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="66"/>
+      <c r="E66" s="65"/>
       <c r="F66" s="50"/>
       <c r="G66" s="48" t="s">
         <v>221</v>
@@ -10114,7 +10114,7 @@
       <c r="D67" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="66"/>
+      <c r="E67" s="65"/>
       <c r="F67" s="50"/>
       <c r="G67" s="48" t="s">
         <v>160</v>
@@ -10140,7 +10140,7 @@
       <c r="D68" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="65" t="s">
         <v>197</v>
       </c>
       <c r="F68" s="50"/>
@@ -10168,7 +10168,7 @@
       <c r="D69" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="59" t="s">
         <v>79</v>
       </c>
       <c r="F69" s="42" t="s">
@@ -10198,7 +10198,7 @@
       <c r="D70" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="65" t="s">
         <v>167</v>
       </c>
       <c r="F70" s="50"/>
@@ -10226,7 +10226,7 @@
       <c r="D71" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="65" t="s">
         <v>169</v>
       </c>
       <c r="F71" s="50"/>
@@ -10254,7 +10254,7 @@
       <c r="D72" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="65" t="s">
         <v>204</v>
       </c>
       <c r="F72" s="50"/>
@@ -10282,7 +10282,7 @@
       <c r="D73" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="66"/>
+      <c r="E73" s="65"/>
       <c r="F73" s="50"/>
       <c r="G73" s="48" t="s">
         <v>210</v>
@@ -10308,7 +10308,7 @@
       <c r="D74" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="E74" s="66" t="s">
+      <c r="E74" s="65" t="s">
         <v>157</v>
       </c>
       <c r="F74" s="50"/>
@@ -10336,7 +10336,7 @@
       <c r="D75" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="E75" s="66"/>
+      <c r="E75" s="65"/>
       <c r="F75" s="50"/>
       <c r="G75" s="48" t="s">
         <v>226</v>
@@ -10360,7 +10360,7 @@
         <v>8736</v>
       </c>
       <c r="D76" s="49"/>
-      <c r="E76" s="60" t="s">
+      <c r="E76" s="59" t="s">
         <v>121</v>
       </c>
       <c r="F76" s="42" t="s">
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="49"/>
-      <c r="E77" s="66"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="50"/>
       <c r="G77" s="48"/>
       <c r="H77" s="51"/>
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="49"/>
-      <c r="E78" s="66"/>
+      <c r="E78" s="65"/>
       <c r="F78" s="50"/>
       <c r="G78" s="48"/>
       <c r="H78" s="51"/>
@@ -10416,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="49"/>
-      <c r="E79" s="66"/>
+      <c r="E79" s="65"/>
       <c r="F79" s="50"/>
       <c r="G79" s="48"/>
       <c r="H79" s="51"/>
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="49"/>
-      <c r="E80" s="66"/>
+      <c r="E80" s="65"/>
       <c r="F80" s="50"/>
       <c r="G80" s="48"/>
       <c r="H80" s="51"/>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="49"/>
-      <c r="E81" s="66"/>
+      <c r="E81" s="65"/>
       <c r="F81" s="50"/>
       <c r="G81" s="48"/>
       <c r="H81" s="51"/>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="49"/>
-      <c r="E82" s="66"/>
+      <c r="E82" s="65"/>
       <c r="F82" s="50"/>
       <c r="G82" s="48"/>
       <c r="H82" s="51"/>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="49"/>
-      <c r="E83" s="66"/>
+      <c r="E83" s="65"/>
       <c r="F83" s="50"/>
       <c r="G83" s="48"/>
       <c r="H83" s="51"/>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="49"/>
-      <c r="E84" s="66"/>
+      <c r="E84" s="65"/>
       <c r="F84" s="50"/>
       <c r="G84" s="48"/>
       <c r="H84" s="51"/>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="49"/>
-      <c r="E85" s="66"/>
+      <c r="E85" s="65"/>
       <c r="F85" s="50"/>
       <c r="G85" s="48"/>
       <c r="H85" s="51"/>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="49"/>
-      <c r="E86" s="66"/>
+      <c r="E86" s="65"/>
       <c r="F86" s="50"/>
       <c r="G86" s="48"/>
       <c r="H86" s="51"/>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="49"/>
-      <c r="E87" s="66"/>
+      <c r="E87" s="65"/>
       <c r="F87" s="50"/>
       <c r="G87" s="48"/>
       <c r="H87" s="51"/>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="49"/>
-      <c r="E88" s="66"/>
+      <c r="E88" s="65"/>
       <c r="F88" s="50"/>
       <c r="G88" s="48"/>
       <c r="H88" s="51"/>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="49"/>
-      <c r="E89" s="66"/>
+      <c r="E89" s="65"/>
       <c r="F89" s="50"/>
       <c r="G89" s="48"/>
       <c r="H89" s="51"/>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="49"/>
-      <c r="E90" s="66"/>
+      <c r="E90" s="65"/>
       <c r="F90" s="50"/>
       <c r="G90" s="48"/>
       <c r="H90" s="51"/>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="49"/>
-      <c r="E91" s="66"/>
+      <c r="E91" s="65"/>
       <c r="F91" s="50"/>
       <c r="G91" s="48"/>
       <c r="H91" s="51"/>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="49"/>
-      <c r="E92" s="66"/>
+      <c r="E92" s="65"/>
       <c r="F92" s="50"/>
       <c r="G92" s="48"/>
       <c r="H92" s="51"/>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="49"/>
-      <c r="E93" s="66"/>
+      <c r="E93" s="65"/>
       <c r="F93" s="50"/>
       <c r="G93" s="48"/>
       <c r="H93" s="51"/>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="49"/>
-      <c r="E94" s="66"/>
+      <c r="E94" s="65"/>
       <c r="F94" s="50"/>
       <c r="G94" s="48"/>
       <c r="H94" s="51"/>
@@ -10672,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="49"/>
-      <c r="E95" s="66"/>
+      <c r="E95" s="65"/>
       <c r="F95" s="50"/>
       <c r="G95" s="48"/>
       <c r="H95" s="51"/>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="49"/>
-      <c r="E96" s="66"/>
+      <c r="E96" s="65"/>
       <c r="F96" s="50"/>
       <c r="G96" s="48"/>
       <c r="H96" s="51"/>
@@ -10704,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="49"/>
-      <c r="E97" s="66"/>
+      <c r="E97" s="65"/>
       <c r="F97" s="50"/>
       <c r="G97" s="48"/>
       <c r="H97" s="51"/>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="49"/>
-      <c r="E98" s="66"/>
+      <c r="E98" s="65"/>
       <c r="F98" s="50"/>
       <c r="G98" s="48"/>
       <c r="H98" s="51"/>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="49"/>
-      <c r="E99" s="66"/>
+      <c r="E99" s="65"/>
       <c r="F99" s="50"/>
       <c r="G99" s="48"/>
       <c r="H99" s="51"/>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="49"/>
-      <c r="E100" s="66"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="50"/>
       <c r="G100" s="48"/>
       <c r="H100" s="51"/>
@@ -10760,171 +10760,11 @@
       <c r="J100" s="48"/>
       <c r="K100" s="48"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="48"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="48"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="49"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="48"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="48"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="49"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="48"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="48"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="48"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="49"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="51"/>
-      <c r="I104" s="48"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="48"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="49"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="48"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="51"/>
-      <c r="I106" s="48"/>
-      <c r="J106" s="48"/>
-      <c r="K106" s="48"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="48"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="49"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="48"/>
-      <c r="J107" s="48"/>
-      <c r="K107" s="48"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="48"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="48"/>
-      <c r="J108" s="48"/>
-      <c r="K108" s="48"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="48"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D109" s="49"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="51"/>
-      <c r="I109" s="48"/>
-      <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="48"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="49">
-        <f>Inventory_List_Table345[[#This Row],[QUANTITY]]*Inventory_List_Table345[[#This Row],[UNIT COST]]</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="49"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="51"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="48"/>
-      <c r="K110" s="48"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D17:D21 E7:F7 A8:K11 A12:D12 C13:D16 A13:A16 C17:C22 H12:H21 K12:K21 E23 F24 I22:K24 B23:C29 A30 F25:K26 G27:K29 F30:F32 H30:H32 K30:K32 E33:E35 E39:F39 F36:F38 H33:K35 H36:H38 F41:F43 F60:F70 H41:H69 I70:K71 K72:K73 H72:H73 F73 A76:C76 F74:K76 E71:F71 C30:C75 A4:K4 A6:K6 A5:J5 K36:K49 K51:K69 J50 A77:K110">
+  <conditionalFormatting sqref="D17:D21 E7:F7 A8:K11 A12:D12 C13:D16 A13:A16 C17:C22 H12:H21 K12:K21 E23 F24 I22:K24 B23:C29 A30 F25:K26 G27:K29 F30:F32 H30:H32 K30:K32 E33:E35 E39:F39 F36:F38 H33:K35 H36:H38 F41:F43 F60:F70 H41:H69 I70:K71 K72:K73 H72:H73 F73 A76:C76 F74:K76 E71:F71 C30:C75 A4:K4 A6:K6 A5:J5 K36:K49 K51:K69 J50 A77:K100">
     <cfRule type="expression" dxfId="185" priority="573">
       <formula>$L4="Yes"</formula>
     </cfRule>
@@ -11674,24 +11514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11899,33 +11721,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11943,4 +11757,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>